--- a/notebooks/df_result.xlsx
+++ b/notebooks/df_result.xlsx
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>-14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>-59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>-172</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>-621</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>48</v>
       </c>
       <c r="B11" t="n">
-        <v>-771</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>60</v>
       </c>
       <c r="B12" t="n">
-        <v>-899</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="n">
-        <v>-1440</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>-3090</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>180</v>
       </c>
       <c r="B15" t="n">
-        <v>-2442</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>360</v>
       </c>
       <c r="B16" t="n">
-        <v>-2496</v>
+        <v>2355</v>
       </c>
     </row>
   </sheetData>
